--- a/MIS 2021_Raw/MIS_REPORT_效率_单耗_人力.xlsx
+++ b/MIS 2021_Raw/MIS_REPORT_效率_单耗_人力.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\ZW_QPython\_MIS-DATA\MIS 2021_Raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD6ABC5-315F-4391-9C12-0DEF5DE15E2A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DBCE08-5FD5-431F-8FC3-4203199F9A7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ELECTRIC CONSUMPTION" sheetId="1" r:id="rId1"/>
@@ -1166,6 +1166,24 @@
     <xf numFmtId="165" fontId="10" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1175,29 +1193,11 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1211,8 +1211,8 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1220,8 +1220,8 @@
     <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1537,13 +1537,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:CQ115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BB1" workbookViewId="0">
+    <sheetView topLeftCell="BB1" workbookViewId="0">
       <selection activeCell="CG3" sqref="CG3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
@@ -1558,23 +1561,23 @@
   <sheetData>
     <row r="1" spans="1:95" s="1" customFormat="1" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:95" s="1" customFormat="1" ht="19.7" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
     </row>
     <row r="3" spans="1:95" s="1" customFormat="1" ht="18.2" customHeight="1">
       <c r="A3" s="1">
@@ -1864,33 +1867,33 @@
       </c>
     </row>
     <row r="4" spans="1:95" s="1" customFormat="1" ht="21.4" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="43" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
       <c r="V4" s="42" t="s">
         <v>3</v>
       </c>
@@ -1961,81 +1964,81 @@
       <c r="CA4" s="42"/>
       <c r="CB4" s="42"/>
       <c r="CC4" s="42"/>
-      <c r="CD4" s="45" t="s">
+      <c r="CD4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="CE4" s="45"/>
-      <c r="CF4" s="45"/>
-      <c r="CG4" s="45"/>
-      <c r="CH4" s="45"/>
-      <c r="CI4" s="45"/>
-      <c r="CJ4" s="45"/>
-      <c r="CK4" s="45"/>
-      <c r="CL4" s="45"/>
-      <c r="CM4" s="45"/>
-      <c r="CN4" s="45"/>
-      <c r="CO4" s="45"/>
-      <c r="CP4" s="45"/>
-      <c r="CQ4" s="45"/>
+      <c r="CE4" s="44"/>
+      <c r="CF4" s="44"/>
+      <c r="CG4" s="44"/>
+      <c r="CH4" s="44"/>
+      <c r="CI4" s="44"/>
+      <c r="CJ4" s="44"/>
+      <c r="CK4" s="44"/>
+      <c r="CL4" s="44"/>
+      <c r="CM4" s="44"/>
+      <c r="CN4" s="44"/>
+      <c r="CO4" s="44"/>
+      <c r="CP4" s="44"/>
+      <c r="CQ4" s="44"/>
     </row>
     <row r="5" spans="1:95" s="1" customFormat="1" ht="2.65" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="44" t="s">
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="47" t="s">
+      <c r="D5" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="43" t="s">
+      <c r="H5" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="43" t="s">
+      <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="43" t="s">
+      <c r="J5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="L5" s="43" t="s">
+      <c r="L5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="43" t="s">
+      <c r="M5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="43" t="s">
+      <c r="N5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="43" t="s">
+      <c r="O5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="43" t="s">
+      <c r="Q5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="43" t="s">
+      <c r="R5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="S5" s="43" t="s">
+      <c r="S5" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="T5" s="43" t="s">
+      <c r="T5" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="U5" s="43" t="s">
+      <c r="U5" s="41" t="s">
         <v>27</v>
       </c>
       <c r="V5" s="3">
@@ -2218,71 +2221,71 @@
       <c r="CC5" s="3">
         <v>12</v>
       </c>
-      <c r="CD5" s="46" t="s">
+      <c r="CD5" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="CE5" s="46" t="s">
+      <c r="CE5" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="CF5" s="46" t="s">
+      <c r="CF5" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="CG5" s="46" t="s">
+      <c r="CG5" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="CH5" s="46" t="s">
+      <c r="CH5" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="CI5" s="46" t="s">
+      <c r="CI5" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="CJ5" s="46" t="s">
+      <c r="CJ5" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="CK5" s="46" t="s">
+      <c r="CK5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="CL5" s="46" t="s">
+      <c r="CL5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="CM5" s="46" t="s">
+      <c r="CM5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="CN5" s="46" t="s">
+      <c r="CN5" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="CO5" s="46" t="s">
+      <c r="CO5" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="CP5" s="46" t="s">
+      <c r="CP5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="CQ5" s="46" t="s">
+      <c r="CQ5" s="39" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:95" s="1" customFormat="1" ht="25.15" customHeight="1">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
       <c r="V6" s="4" t="s">
         <v>11</v>
       </c>
@@ -2463,20 +2466,20 @@
       <c r="CC6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="CD6" s="46"/>
-      <c r="CE6" s="46"/>
-      <c r="CF6" s="46"/>
-      <c r="CG6" s="46"/>
-      <c r="CH6" s="46"/>
-      <c r="CI6" s="46"/>
-      <c r="CJ6" s="46"/>
-      <c r="CK6" s="46"/>
-      <c r="CL6" s="46"/>
-      <c r="CM6" s="46"/>
-      <c r="CN6" s="46"/>
-      <c r="CO6" s="46"/>
-      <c r="CP6" s="46"/>
-      <c r="CQ6" s="46"/>
+      <c r="CD6" s="39"/>
+      <c r="CE6" s="39"/>
+      <c r="CF6" s="39"/>
+      <c r="CG6" s="39"/>
+      <c r="CH6" s="39"/>
+      <c r="CI6" s="39"/>
+      <c r="CJ6" s="39"/>
+      <c r="CK6" s="39"/>
+      <c r="CL6" s="39"/>
+      <c r="CM6" s="39"/>
+      <c r="CN6" s="39"/>
+      <c r="CO6" s="39"/>
+      <c r="CP6" s="39"/>
+      <c r="CQ6" s="39"/>
     </row>
     <row r="7" spans="1:95" s="1" customFormat="1" ht="18.2" customHeight="1">
       <c r="A7" s="5" t="s">
@@ -15570,10 +15573,10 @@
       <c r="CQ113" s="11"/>
     </row>
     <row r="114" spans="1:95" s="1" customFormat="1" ht="18.2" customHeight="1">
-      <c r="A114" s="39" t="s">
+      <c r="A114" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="B114" s="39"/>
+      <c r="B114" s="45"/>
       <c r="C114" s="14">
         <v>27.316693317508701</v>
       </c>
@@ -15713,6 +15716,34 @@
     <row r="115" spans="1:95" s="1" customFormat="1" ht="28.7" customHeight="1"/>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="AH4:AS4"/>
+    <mergeCell ref="AT4:BE4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="S5:S6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="U5:U6"/>
+    <mergeCell ref="V4:AG4"/>
+    <mergeCell ref="BF4:BQ4"/>
+    <mergeCell ref="BR4:CC4"/>
+    <mergeCell ref="C4:P4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="CD4:CQ4"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CF5:CF6"/>
+    <mergeCell ref="CG5:CG6"/>
+    <mergeCell ref="CH5:CH6"/>
+    <mergeCell ref="CI5:CI6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CL5:CL6"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CN5:CN6"/>
     <mergeCell ref="CO5:CO6"/>
     <mergeCell ref="CP5:CP6"/>
     <mergeCell ref="CQ5:CQ6"/>
@@ -15729,34 +15760,6 @@
     <mergeCell ref="N5:N6"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="P5:P6"/>
-    <mergeCell ref="BF4:BQ4"/>
-    <mergeCell ref="BR4:CC4"/>
-    <mergeCell ref="C4:P4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="CD4:CQ4"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CF5:CF6"/>
-    <mergeCell ref="CG5:CG6"/>
-    <mergeCell ref="CH5:CH6"/>
-    <mergeCell ref="CI5:CI6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CL5:CL6"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CN5:CN6"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A2:O2"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="AH4:AS4"/>
-    <mergeCell ref="AT4:BE4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="S5:S6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="U5:U6"/>
-    <mergeCell ref="V4:AG4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="120" orientation="landscape"/>
@@ -15766,11 +15769,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:R114"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
@@ -15784,36 +15792,91 @@
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-    </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" ht="14.45" customHeight="1"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1">
+        <v>14</v>
+      </c>
+      <c r="O3" s="1">
+        <v>15</v>
+      </c>
+      <c r="P3" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>17</v>
+      </c>
+      <c r="R3" s="1">
+        <v>18</v>
+      </c>
+    </row>
     <row r="4" spans="1:18" s="1" customFormat="1" ht="4.3499999999999996" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="44" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="47" t="s">
+      <c r="D4" s="40" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="16">
@@ -15852,18 +15915,18 @@
       <c r="P4" s="16">
         <v>12</v>
       </c>
-      <c r="Q4" s="49" t="s">
+      <c r="Q4" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="R4" s="49" t="s">
+      <c r="R4" s="48" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:18" s="1" customFormat="1" ht="21.4" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="47"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
@@ -15900,8 +15963,8 @@
       <c r="P5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="49"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
     </row>
     <row r="6" spans="1:18" s="1" customFormat="1" ht="18.2" customHeight="1">
       <c r="A6" s="5" t="s">
@@ -19188,10 +19251,10 @@
       <c r="R112" s="19"/>
     </row>
     <row r="113" spans="1:18" s="1" customFormat="1" ht="18.2" customHeight="1">
-      <c r="A113" s="48" t="s">
+      <c r="A113" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="B113" s="48"/>
+      <c r="B113" s="49"/>
       <c r="C113" s="14">
         <v>47.148387015669698</v>
       </c>
@@ -19236,11 +19299,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:AT115"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
@@ -19278,27 +19346,151 @@
   <sheetData>
     <row r="1" spans="1:46" s="1" customFormat="1" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:46" s="1" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-    </row>
-    <row r="3" spans="1:46" s="1" customFormat="1" ht="14.45" customHeight="1"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+    </row>
+    <row r="3" spans="1:46" s="1" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1">
+        <v>14</v>
+      </c>
+      <c r="O3" s="1">
+        <v>15</v>
+      </c>
+      <c r="P3" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>17</v>
+      </c>
+      <c r="R3" s="1">
+        <v>18</v>
+      </c>
+      <c r="S3" s="1">
+        <v>19</v>
+      </c>
+      <c r="T3" s="1">
+        <v>20</v>
+      </c>
+      <c r="U3" s="1">
+        <v>21</v>
+      </c>
+      <c r="V3" s="1">
+        <v>22</v>
+      </c>
+      <c r="W3" s="1">
+        <v>23</v>
+      </c>
+      <c r="X3" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>29</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>30</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>31</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>33</v>
+      </c>
+      <c r="AH3" s="1">
+        <v>34</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>35</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>36</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>37</v>
+      </c>
+      <c r="AL3" s="1">
+        <v>38</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>39</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>40</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>41</v>
+      </c>
+    </row>
     <row r="4" spans="1:46" s="1" customFormat="1" ht="4.3499999999999996" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="53" t="s">
         <v>9</v>
       </c>
@@ -19373,8 +19565,8 @@
       <c r="AT4" s="52"/>
     </row>
     <row r="5" spans="1:46" s="1" customFormat="1" ht="21.4" customHeight="1">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
@@ -27657,10 +27849,10 @@
       <c r="AT113" s="27"/>
     </row>
     <row r="114" spans="1:46" s="1" customFormat="1" ht="18.2" customHeight="1">
-      <c r="A114" s="48" t="s">
+      <c r="A114" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="B114" s="48"/>
+      <c r="B114" s="49"/>
       <c r="C114" s="29">
         <v>180</v>
       </c>
@@ -27737,6 +27929,19 @@
     <row r="115" spans="1:46" s="1" customFormat="1" ht="28.7" customHeight="1"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="AA4:AC4"/>
+    <mergeCell ref="AA5:AC5"/>
+    <mergeCell ref="X4:Z4"/>
+    <mergeCell ref="X5:Z5"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG4:AI4"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AJ5:AL5"/>
     <mergeCell ref="AM4:AO4"/>
     <mergeCell ref="AM5:AO5"/>
     <mergeCell ref="AP4:AT5"/>
@@ -27753,19 +27958,6 @@
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="U4:W4"/>
     <mergeCell ref="U5:W5"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="AG4:AI4"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="AA4:AC4"/>
-    <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="X4:Z4"/>
-    <mergeCell ref="X5:Z5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="120" orientation="landscape"/>
@@ -27775,11 +27967,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:AE115"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
@@ -27815,27 +28012,115 @@
   <sheetData>
     <row r="1" spans="1:31" s="1" customFormat="1" ht="7.5" customHeight="1"/>
     <row r="2" spans="1:31" s="1" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-    </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" ht="14.45" customHeight="1"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+    </row>
+    <row r="3" spans="1:31" s="1" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>8</v>
+      </c>
+      <c r="I3" s="1">
+        <v>9</v>
+      </c>
+      <c r="J3" s="1">
+        <v>10</v>
+      </c>
+      <c r="K3" s="1">
+        <v>11</v>
+      </c>
+      <c r="L3" s="1">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1">
+        <v>13</v>
+      </c>
+      <c r="N3" s="1">
+        <v>14</v>
+      </c>
+      <c r="O3" s="1">
+        <v>15</v>
+      </c>
+      <c r="P3" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>17</v>
+      </c>
+      <c r="R3" s="1">
+        <v>18</v>
+      </c>
+      <c r="S3" s="1">
+        <v>19</v>
+      </c>
+      <c r="T3" s="1">
+        <v>20</v>
+      </c>
+      <c r="U3" s="1">
+        <v>21</v>
+      </c>
+      <c r="V3" s="1">
+        <v>22</v>
+      </c>
+      <c r="W3" s="1">
+        <v>23</v>
+      </c>
+      <c r="X3" s="1">
+        <v>24</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>25</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>27</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>28</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>29</v>
+      </c>
+    </row>
     <row r="4" spans="1:31" s="1" customFormat="1" ht="4.3499999999999996" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="57"/>
+      <c r="C4" s="54" t="s">
         <v>251</v>
       </c>
       <c r="D4" s="53" t="s">
@@ -27896,9 +28181,9 @@
       <c r="AE4" s="52"/>
     </row>
     <row r="5" spans="1:31" s="1" customFormat="1" ht="21.4" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="57"/>
+      <c r="A5" s="57"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="54"/>
       <c r="D5" s="53"/>
       <c r="E5" s="53"/>
       <c r="F5" s="56" t="s">
@@ -27953,8 +28238,8 @@
       <c r="AE5" s="52"/>
     </row>
     <row r="6" spans="1:31" s="1" customFormat="1" ht="33" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="30" t="s">
         <v>254</v>
       </c>
@@ -33617,10 +33902,10 @@
       <c r="AE113" s="35"/>
     </row>
     <row r="114" spans="1:31" s="1" customFormat="1" ht="18.2" customHeight="1">
-      <c r="A114" s="48" t="s">
+      <c r="A114" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="B114" s="48"/>
+      <c r="B114" s="49"/>
       <c r="C114" s="37">
         <v>2043.3972699999999</v>
       </c>
@@ -33672,6 +33957,20 @@
     <row r="115" spans="1:31" s="1" customFormat="1" ht="28.7" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:B6"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AB5:AC5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="Z5:AA5"/>
     <mergeCell ref="AD4:AE5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:E5"/>
@@ -33688,20 +33987,6 @@
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R4:S4"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:B6"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AB5:AC5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="Z5:AA5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="120" orientation="landscape"/>
